--- a/接口.xlsx
+++ b/接口.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky48\Desktop\github\filter\filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBE1C09-4610-466B-AC09-3A604BCAC18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60BD21-7E45-474A-9E71-DBECF386F159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2676" yWindow="2748" windowWidth="19440" windowHeight="12204" xr2:uid="{40C2CEE2-0736-40D2-A090-0F908A1ADE34}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,21 +43,12 @@
     <t>目标文件夹路径</t>
   </si>
   <si>
-    <t>考场名称</t>
-  </si>
-  <si>
     <t>考生名单名字</t>
   </si>
   <si>
     <t>题目名字</t>
   </si>
   <si>
-    <t>认可后缀</t>
-  </si>
-  <si>
-    <t>保存的位置（格式为xlsx）</t>
-  </si>
-  <si>
     <t>all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,43 +73,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>为空则为input()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="等线"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>跳过第一行</t>
+      <t>认可</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>work</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标文件夹为"0"是检查文件是否合法</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后缀</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考场名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过第一行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +177,24 @@
       <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -189,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,6 +237,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,7 +565,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -551,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -563,19 +603,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -584,10 +624,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -595,11 +635,11 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
+      <c r="A6" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -608,40 +648,40 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -657,9 +697,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -667,9 +705,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky48\Desktop\github\filter\filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60BD21-7E45-474A-9E71-DBECF386F159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3088A2-44CA-4EDC-9A59-E8DF49D8BB44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2676" yWindow="2748" windowWidth="19440" windowHeight="12204" xr2:uid="{40C2CEE2-0736-40D2-A090-0F908A1ADE34}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="19440" windowHeight="12204" xr2:uid="{40C2CEE2-0736-40D2-A090-0F908A1ADE34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +47,6 @@
   </si>
   <si>
     <t>题目名字</t>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name.xlsx</t>
@@ -134,12 +126,16 @@
     <t>跳过第一行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +193,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +249,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505F9218-C7FC-402C-A45A-28AF783061E7}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -574,202 +583,349 @@
     <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="10">
+        <v>1</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/接口.xlsx
+++ b/接口.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky48\Desktop\github\filter\filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3088A2-44CA-4EDC-9A59-E8DF49D8BB44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94095823-5973-413D-9DE2-98C1F6D6CCE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="19440" windowHeight="12204" xr2:uid="{40C2CEE2-0736-40D2-A090-0F908A1ADE34}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="19440" windowHeight="12204" xr2:uid="{40C2CEE2-0736-40D2-A090-0F908A1ADE34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B4" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
